--- a/results/mp/logistic/corona/confidence/126/stop-words-desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-desired-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>die</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
@@ -70,97 +76,106 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>well</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -518,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.839041095890411</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.95</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8287671232876712</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,7 +723,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -737,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -787,7 +802,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7352941176470589</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -805,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.9007832898172323</v>
+        <v>0.9060052219321149</v>
       </c>
       <c r="L7">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M7">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6084656084656085</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="C8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8839285714285714</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5932203389830508</v>
+        <v>0.5523255813953488</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8802816901408451</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5174418604651163</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C10">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8787878787878788</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2147651006711409</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8773584905660378</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="M11">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,47 +1044,95 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.3733333333333334</v>
+      </c>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>47</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L12">
+        <v>71</v>
+      </c>
+      <c r="M12">
+        <v>71</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.2483221476510067</v>
+      </c>
+      <c r="C13">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>112</v>
       </c>
-      <c r="M12">
-        <v>112</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>0.8658536585365854</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L13">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1081,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.8625</v>
+        <v>0.859375</v>
       </c>
       <c r="L14">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1107,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.8604651162790697</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1133,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.8297872340425532</v>
+        <v>0.8375</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1159,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.8275862068965517</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1185,21 +1248,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.8</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1211,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1242,16 +1305,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1263,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.7714285714285715</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1289,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.7708333333333334</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1315,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.7186440677966102</v>
+        <v>0.72</v>
       </c>
       <c r="L23">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1341,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.7147058823529412</v>
+        <v>0.717687074829932</v>
       </c>
       <c r="L24">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="M24">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1364,24 +1427,24 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.7</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1393,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.698744769874477</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1419,15 +1482,15 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6966292134831461</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L27">
         <v>62</v>
@@ -1445,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6808510638297872</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1471,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L29">
         <v>44</v>
       </c>
-      <c r="K29">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L29">
-        <v>45</v>
-      </c>
       <c r="M29">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1497,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5846153846153846</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1523,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5256410256410257</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1549,47 +1612,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.4901960784313725</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L32">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>25</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>26</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.4794520547945205</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1601,6 +1664,84 @@
         <v>0</v>
       </c>
       <c r="Q33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L34">
+        <v>36</v>
+      </c>
+      <c r="M34">
+        <v>36</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="L35">
+        <v>27</v>
+      </c>
+      <c r="M35">
+        <v>27</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36">
+        <v>0.40625</v>
+      </c>
+      <c r="L36">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>38</v>
       </c>
     </row>
